--- a/information_record/activity_log.xlsx
+++ b/information_record/activity_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3052,11 +3052,108 @@
       <c r="O3" t="n">
         <v>350</v>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
+      <c r="P3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20:22:50</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Image Detection</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>information_record\inputs\images\20251205_202250_AUG_oil_spill00137.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>information_record\outputs\images\20251205_202250_annotated_AUG_oil_spill00137.jpg</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>AUG_oil_spill00137.jpg</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.8097</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>27.17%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "class": 0,
+    "class_name": "oil_spillage",
+    "confidence": 0.8097065091133118,
+    "bbox": [
+      515.0763549804688,
+      325.65985107421875,
+      997.2764892578125,
+      748.2410888671875
+    ],
+    "area": 203768.734375
+  }
+]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{
+  "total_detections": 1,
+  "avg_confidence": 0.8097065091133118,
+  "max_confidence": 0.8097065091133118,
+  "min_confidence": 0.8097065091133118,
+  "bounding_boxes": [
+    [
+      515.0763549804688,
+      325.65985107421875,
+      997.2764892578125,
+      748.2410888671875
+    ]
+  ],
+  "total_spill_area": 203768.734375,
+  "coverage_percentage": 27.169164583333334,
+  "spill_count": 1,
+  "avg_spill_size": 203768.734375,
+  "largest_spill_area": 203768.734375
+}</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-12-05 20:22:50</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
